--- a/data.xlsx
+++ b/data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ABCCEA-110C-4AA7-87E8-6E50EF207ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\div\Projects\Python\math_ml_train\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82539D09-01CD-4246-BB70-940EE8ABAB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="499">
   <si>
     <t>Ситуация</t>
   </si>
@@ -1525,6 +1528,9 @@
   </si>
   <si>
     <t>0, 0, 0, 0.4, 0.2, 0, 0.4</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -1976,18 +1982,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:E451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C377" workbookViewId="0">
-      <selection activeCell="D409" sqref="D409"/>
+    <sheetView tabSelected="1" topLeftCell="C383" workbookViewId="0">
+      <selection activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="35.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" ht="16.5">
+    <row r="1" spans="3:5">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:5" ht="15.75">
+    <row r="2" spans="3:5">
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="15.75">
+    <row r="3" spans="3:5">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:5" ht="15.75">
+    <row r="4" spans="3:5">
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="15.75">
+    <row r="5" spans="3:5">
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="15.75">
+    <row r="6" spans="3:5">
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.75">
+    <row r="7" spans="3:5">
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75">
+    <row r="8" spans="3:5">
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75">
+    <row r="9" spans="3:5" ht="30">
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15.75">
+    <row r="10" spans="3:5">
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="15.75">
+    <row r="11" spans="3:5">
       <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="15.75">
+    <row r="12" spans="3:5">
       <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="15.75">
+    <row r="13" spans="3:5">
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="15.75">
+    <row r="14" spans="3:5">
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="15.75">
+    <row r="15" spans="3:5">
       <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="15.75">
+    <row r="16" spans="3:5">
       <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.75">
+    <row r="17" spans="3:5">
       <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15.75">
+    <row r="19" spans="3:5">
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15.75">
+    <row r="20" spans="3:5">
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15.75">
+    <row r="21" spans="3:5">
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.75">
+    <row r="22" spans="3:5">
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15.75">
+    <row r="23" spans="3:5">
       <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15.75">
+    <row r="24" spans="3:5">
       <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15.75">
+    <row r="25" spans="3:5">
       <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="15.75">
+    <row r="27" spans="3:5">
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="15.75">
+    <row r="28" spans="3:5">
       <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="15.75">
+    <row r="29" spans="3:5">
       <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="15.75">
+    <row r="30" spans="3:5">
       <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="15.75">
+    <row r="31" spans="3:5">
       <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2328,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="15.75">
+    <row r="32" spans="3:5">
       <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15.75">
+    <row r="33" spans="3:5">
       <c r="C33" s="2" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="15.75">
+    <row r="34" spans="3:5">
       <c r="C34" s="2" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="15.75">
+    <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
         <v>66</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15.75">
+    <row r="36" spans="3:5">
       <c r="C36" s="2" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15.75">
+    <row r="37" spans="3:5">
       <c r="C37" s="2" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:5" ht="15.75">
+    <row r="38" spans="3:5">
       <c r="C38" s="2" t="s">
         <v>72</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:5" ht="15.75">
+    <row r="39" spans="3:5">
       <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="15.75">
+    <row r="40" spans="3:5" ht="30">
       <c r="C40" s="2" t="s">
         <v>75</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="15.75">
+    <row r="41" spans="3:5">
       <c r="C41" s="2" t="s">
         <v>77</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="15.75">
+    <row r="42" spans="3:5">
       <c r="C42" s="2" t="s">
         <v>79</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:5" ht="15.75">
+    <row r="43" spans="3:5">
       <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:5" ht="15.75">
+    <row r="44" spans="3:5">
       <c r="C44" s="2" t="s">
         <v>81</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:5" ht="15.75">
+    <row r="45" spans="3:5">
       <c r="C45" s="2" t="s">
         <v>82</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:5" ht="15.75">
+    <row r="46" spans="3:5">
       <c r="C46" s="2" t="s">
         <v>83</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:5" ht="15.75">
+    <row r="48" spans="3:5">
       <c r="C48" s="3" t="s">
         <v>86</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="15.75">
+    <row r="49" spans="3:5" ht="30">
       <c r="C49" s="3" t="s">
         <v>88</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="15.75">
+    <row r="50" spans="3:5">
       <c r="C50" s="3" t="s">
         <v>90</v>
       </c>
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="15.75">
+    <row r="51" spans="3:5" ht="30">
       <c r="C51" s="3" t="s">
         <v>91</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="15.75">
+    <row r="52" spans="3:5">
       <c r="C52" s="3" t="s">
         <v>93</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="15.75">
+    <row r="54" spans="3:5">
       <c r="C54" s="3" t="s">
         <v>96</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="15.75">
+    <row r="56" spans="3:5">
       <c r="C56" s="3" t="s">
         <v>100</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="16.5">
+    <row r="57" spans="3:5">
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="15.75">
+    <row r="59" spans="3:5">
       <c r="C59" s="3" t="s">
         <v>104</v>
       </c>
@@ -2644,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:5" ht="16.5">
+    <row r="61" spans="3:5">
       <c r="D61" s="1" t="s">
         <v>106</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:5" ht="16.5">
+    <row r="62" spans="3:5">
       <c r="D62" s="1" t="s">
         <v>107</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:5" ht="16.5">
+    <row r="63" spans="3:5">
       <c r="D63" s="1" t="s">
         <v>108</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:5" ht="16.5">
+    <row r="64" spans="3:5">
       <c r="D64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:5" ht="16.5">
+    <row r="65" spans="3:5">
       <c r="D65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="16.5">
+    <row r="66" spans="3:5">
       <c r="D66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="16.5">
+    <row r="67" spans="3:5">
       <c r="D67" s="1" t="s">
         <v>34</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="16.5">
+    <row r="68" spans="3:5">
       <c r="D68" s="1" t="s">
         <v>111</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="16.5">
+    <row r="69" spans="3:5">
       <c r="D69" s="1" t="s">
         <v>112</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="16.5">
+    <row r="70" spans="3:5">
       <c r="D70" s="1" t="s">
         <v>92</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="16.5">
+    <row r="71" spans="3:5">
       <c r="D71" s="1" t="s">
         <v>42</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="16.5">
+    <row r="72" spans="3:5">
       <c r="D72" s="1" t="s">
         <v>32</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:5" ht="16.5">
+    <row r="73" spans="3:5">
       <c r="D73" s="1" t="s">
         <v>113</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="16.5">
+    <row r="74" spans="3:5">
       <c r="D74" s="1" t="s">
         <v>114</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="15.75">
+    <row r="75" spans="3:5">
       <c r="C75" s="3" t="s">
         <v>115</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:5" ht="15.75">
+    <row r="77" spans="3:5">
       <c r="C77" s="10" t="s">
         <v>117</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="3:5" ht="15.75">
+    <row r="78" spans="3:5">
       <c r="C78" s="10" t="s">
         <v>119</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="15.75">
+    <row r="79" spans="3:5">
       <c r="C79" s="10" t="s">
         <v>121</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="15.75">
+    <row r="80" spans="3:5">
       <c r="C80" s="2" t="s">
         <v>123</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="15.75">
+    <row r="81" spans="3:5">
       <c r="C81" s="2" t="s">
         <v>125</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="15.75">
+    <row r="82" spans="3:5">
       <c r="C82" s="2" t="s">
         <v>127</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="15.75">
+    <row r="83" spans="3:5">
       <c r="C83" s="2" t="s">
         <v>128</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="3:5" ht="15.75">
+    <row r="84" spans="3:5">
       <c r="C84" s="2" t="s">
         <v>130</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="3:5" ht="15.75">
+    <row r="85" spans="3:5">
       <c r="C85" s="2" t="s">
         <v>131</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="3:5" ht="15.75">
+    <row r="86" spans="3:5">
       <c r="C86" s="2" t="s">
         <v>133</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="3:5" ht="15.75">
+    <row r="87" spans="3:5">
       <c r="C87" s="2" t="s">
         <v>135</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="3:5" ht="15.75">
+    <row r="88" spans="3:5">
       <c r="C88" s="2" t="s">
         <v>137</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="3:5" ht="15.75">
+    <row r="89" spans="3:5">
       <c r="C89" s="2" t="s">
         <v>139</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="3:5" ht="15.75">
+    <row r="90" spans="3:5">
       <c r="C90" s="2" t="s">
         <v>141</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="3:5" ht="15.75">
+    <row r="91" spans="3:5">
       <c r="C91" s="2" t="s">
         <v>142</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="3:5" ht="15.75">
+    <row r="92" spans="3:5">
       <c r="C92" s="2" t="s">
         <v>144</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="3:5" ht="15.75">
+    <row r="93" spans="3:5">
       <c r="C93" s="2" t="s">
         <v>146</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="3:5" ht="15.75">
+    <row r="94" spans="3:5">
       <c r="C94" s="2" t="s">
         <v>148</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="3:5" ht="15.75">
+    <row r="95" spans="3:5">
       <c r="C95" s="2" t="s">
         <v>149</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="3:5" ht="15.75">
+    <row r="96" spans="3:5">
       <c r="C96" s="2" t="s">
         <v>148</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:5" ht="15.75">
+    <row r="97" spans="3:5">
       <c r="C97" s="2" t="s">
         <v>127</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="3:5" ht="16.5">
+    <row r="98" spans="3:5">
       <c r="D98" s="1" t="s">
         <v>152</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="3:5" ht="15.75">
+    <row r="99" spans="3:5">
       <c r="C99" s="2" t="s">
         <v>153</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="3:5" ht="15.75">
+    <row r="100" spans="3:5">
       <c r="C100" s="2" t="s">
         <v>155</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="3:5" ht="15.75">
+    <row r="101" spans="3:5">
       <c r="C101" s="2" t="s">
         <v>137</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="3:5" ht="15.75">
+    <row r="102" spans="3:5">
       <c r="C102" s="2" t="s">
         <v>156</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="3:5" ht="15.75">
+    <row r="103" spans="3:5">
       <c r="C103" s="2" t="s">
         <v>157</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="3:5" ht="15.75">
+    <row r="104" spans="3:5">
       <c r="C104" s="2" t="s">
         <v>158</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="3:5" ht="15.75">
+    <row r="105" spans="3:5">
       <c r="C105" s="2" t="s">
         <v>159</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="3:5" ht="15.75">
+    <row r="106" spans="3:5">
       <c r="C106" s="2" t="s">
         <v>160</v>
       </c>
@@ -3105,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="3:5" ht="15.75">
+    <row r="107" spans="3:5">
       <c r="C107" s="2" t="s">
         <v>162</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="3:5" ht="15.75">
+    <row r="108" spans="3:5">
       <c r="C108" s="2" t="s">
         <v>163</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="3:5" ht="15.75">
+    <row r="109" spans="3:5">
       <c r="C109" s="2" t="s">
         <v>141</v>
       </c>
@@ -3138,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="3:5" ht="15.75">
+    <row r="110" spans="3:5">
       <c r="C110" s="3" t="s">
         <v>165</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="3:5" ht="15.75">
+    <row r="111" spans="3:5">
       <c r="C111" s="3" t="s">
         <v>166</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="3:5" ht="15.75">
+    <row r="115" spans="3:5">
       <c r="C115" s="3" t="s">
         <v>170</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="3:5" ht="16.5">
+    <row r="117" spans="3:5">
       <c r="D117" s="1" t="s">
         <v>172</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="3:5" ht="16.5">
+    <row r="118" spans="3:5">
       <c r="D118" s="1" t="s">
         <v>89</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="3:5" ht="16.5">
+    <row r="119" spans="3:5">
       <c r="D119" s="1" t="s">
         <v>173</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="3:5" ht="16.5">
+    <row r="120" spans="3:5">
       <c r="D120" s="1" t="s">
         <v>174</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="3:5" ht="16.5">
+    <row r="121" spans="3:5">
       <c r="D121" s="1" t="s">
         <v>129</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="3:5" ht="16.5">
+    <row r="122" spans="3:5">
       <c r="D122" s="1" t="s">
         <v>151</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="3:5" ht="16.5">
+    <row r="123" spans="3:5">
       <c r="D123" s="1" t="s">
         <v>150</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="3:5" ht="16.5">
+    <row r="124" spans="3:5">
       <c r="D124" s="1" t="s">
         <v>175</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="3:5" ht="16.5">
+    <row r="125" spans="3:5">
       <c r="D125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="3:5" ht="16.5">
+    <row r="126" spans="3:5">
       <c r="D126" s="1" t="s">
         <v>176</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="3:5" ht="16.5">
+    <row r="127" spans="3:5">
       <c r="D127" s="1" t="s">
         <v>177</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="3:5" ht="16.5">
+    <row r="128" spans="3:5">
       <c r="D128" s="1" t="s">
         <v>178</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="4:5" ht="16.5">
+    <row r="129" spans="4:5">
       <c r="D129" s="1" t="s">
         <v>179</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="4:5" ht="16.5">
+    <row r="130" spans="4:5">
       <c r="D130" s="1" t="s">
         <v>180</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="4:5" ht="16.5">
+    <row r="131" spans="4:5">
       <c r="D131" s="1" t="s">
         <v>181</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="4:5" ht="16.5">
+    <row r="132" spans="4:5">
       <c r="D132" s="1" t="s">
         <v>182</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="4:5" ht="16.5">
+    <row r="133" spans="4:5">
       <c r="D133" s="1" t="s">
         <v>183</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="4:5" ht="16.5">
+    <row r="134" spans="4:5">
       <c r="D134" s="1" t="s">
         <v>184</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="4:5" ht="16.5">
+    <row r="135" spans="4:5">
       <c r="D135" s="1" t="s">
         <v>185</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="4:5" ht="16.5">
+    <row r="136" spans="4:5">
       <c r="D136" s="1" t="s">
         <v>186</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="4:5" ht="16.5">
+    <row r="137" spans="4:5">
       <c r="D137" s="1" t="s">
         <v>187</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="4:5" ht="16.5">
+    <row r="138" spans="4:5">
       <c r="D138" s="1" t="s">
         <v>188</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="4:5" ht="16.5">
+    <row r="139" spans="4:5">
       <c r="D139" s="1" t="s">
         <v>189</v>
       </c>
@@ -3399,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="4:5" ht="16.5">
+    <row r="140" spans="4:5">
       <c r="D140" s="1" t="s">
         <v>190</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="4:5" ht="16.5">
+    <row r="141" spans="4:5">
       <c r="D141" s="1" t="s">
         <v>191</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="4:5" ht="16.5">
+    <row r="142" spans="4:5">
       <c r="D142" s="1" t="s">
         <v>192</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="4:5" ht="16.5">
+    <row r="143" spans="4:5">
       <c r="D143" s="1" t="s">
         <v>193</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="4:5" ht="16.5">
+    <row r="144" spans="4:5">
       <c r="D144" s="1" t="s">
         <v>120</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="3:5" ht="16.5">
+    <row r="145" spans="3:5">
       <c r="D145" s="1" t="s">
         <v>143</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="3:5" ht="16.5">
+    <row r="146" spans="3:5">
       <c r="D146" s="1" t="s">
         <v>194</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="3:5" ht="16.5">
+    <row r="147" spans="3:5">
       <c r="D147" s="1" t="s">
         <v>195</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="3:5" ht="16.5">
+    <row r="148" spans="3:5">
       <c r="D148" s="1" t="s">
         <v>196</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="3:5" ht="16.5">
+    <row r="149" spans="3:5">
       <c r="D149" s="1" t="s">
         <v>197</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="3:5" ht="16.5">
+    <row r="150" spans="3:5">
       <c r="D150" s="1" t="s">
         <v>198</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="3:5" ht="16.5">
+    <row r="151" spans="3:5">
       <c r="D151" s="1" t="s">
         <v>199</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="3:5" ht="15.75">
+    <row r="153" spans="3:5">
       <c r="C153" s="2" t="s">
         <v>201</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="3:5" ht="15.75">
+    <row r="154" spans="3:5">
       <c r="C154" s="2" t="s">
         <v>203</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="3:5" ht="15.75">
+    <row r="155" spans="3:5">
       <c r="C155" s="2" t="s">
         <v>205</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="3:5" ht="15.75">
+    <row r="156" spans="3:5">
       <c r="C156" s="2" t="s">
         <v>206</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="3:5" ht="15.75">
+    <row r="157" spans="3:5">
       <c r="C157" s="2" t="s">
         <v>207</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="3:5" ht="15.75">
+    <row r="158" spans="3:5">
       <c r="C158" s="2" t="s">
         <v>208</v>
       </c>
@@ -3572,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="3:5" ht="15.75">
+    <row r="159" spans="3:5">
       <c r="C159" s="2" t="s">
         <v>210</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="3:5" ht="15.75">
+    <row r="160" spans="3:5">
       <c r="C160" s="2" t="s">
         <v>62</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="3:5" ht="15.75">
+    <row r="161" spans="3:5">
       <c r="C161" s="2" t="s">
         <v>212</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="3:5" ht="15.75">
+    <row r="162" spans="3:5">
       <c r="C162" s="2" t="s">
         <v>214</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="3:5" ht="15.75">
+    <row r="163" spans="3:5">
       <c r="C163" s="2" t="s">
         <v>216</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="3:5" ht="15.75">
+    <row r="164" spans="3:5">
       <c r="C164" s="2" t="s">
         <v>217</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="3:5" ht="15.75">
+    <row r="165" spans="3:5">
       <c r="C165" s="2" t="s">
         <v>219</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="3:5" ht="15.75">
+    <row r="166" spans="3:5">
       <c r="C166" s="2" t="s">
         <v>221</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="3:5" ht="15.75">
+    <row r="167" spans="3:5">
       <c r="C167" s="2" t="s">
         <v>222</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="3:5" ht="15.75">
+    <row r="168" spans="3:5">
       <c r="C168" s="2" t="s">
         <v>223</v>
       </c>
@@ -3682,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="3:5" ht="15.75">
+    <row r="169" spans="3:5">
       <c r="C169" s="2" t="s">
         <v>224</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="3:5" ht="15.75">
+    <row r="170" spans="3:5">
       <c r="C170" s="2" t="s">
         <v>225</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="3:5" ht="15.75">
+    <row r="171" spans="3:5">
       <c r="C171" s="2" t="s">
         <v>226</v>
       </c>
@@ -3715,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="3:5" ht="15.75">
+    <row r="172" spans="3:5">
       <c r="C172" s="2" t="s">
         <v>228</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="3:5" ht="15.75">
+    <row r="173" spans="3:5">
       <c r="C173" s="2" t="s">
         <v>148</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="3:5" ht="15.75">
+    <row r="174" spans="3:5">
       <c r="C174" s="2" t="s">
         <v>229</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="3:5" ht="15.75">
+    <row r="175" spans="3:5">
       <c r="C175" s="2" t="s">
         <v>231</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="3:5" ht="15.75">
+    <row r="176" spans="3:5">
       <c r="C176" s="2" t="s">
         <v>232</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="3:5" ht="15.75">
+    <row r="177" spans="3:5">
       <c r="C177" s="2" t="s">
         <v>233</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="3:5" ht="15.75">
+    <row r="178" spans="3:5">
       <c r="C178" s="2" t="s">
         <v>234</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="3:5" ht="15.75">
+    <row r="179" spans="3:5">
       <c r="C179" s="2" t="s">
         <v>236</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="3:5" ht="15.75">
+    <row r="180" spans="3:5">
       <c r="C180" s="2" t="s">
         <v>237</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="3:5" ht="15.75">
+    <row r="181" spans="3:5">
       <c r="C181" s="2" t="s">
         <v>238</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="3:5" ht="15.75">
+    <row r="182" spans="3:5">
       <c r="C182" s="2" t="s">
         <v>239</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="3:5" ht="15.75">
+    <row r="183" spans="3:5">
       <c r="C183" s="2" t="s">
         <v>240</v>
       </c>
@@ -3847,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:5" ht="15.75">
+    <row r="184" spans="3:5">
       <c r="C184" s="2" t="s">
         <v>241</v>
       </c>
@@ -3858,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="3:5" ht="15.75">
+    <row r="185" spans="3:5">
       <c r="C185" s="2" t="s">
         <v>206</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:5" ht="15.75">
+    <row r="186" spans="3:5">
       <c r="C186" s="2" t="s">
         <v>214</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="3:5" ht="15.75">
+    <row r="187" spans="3:5">
       <c r="C187" s="2" t="s">
         <v>242</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="3:5" ht="15.75">
+    <row r="188" spans="3:5">
       <c r="C188" s="2" t="s">
         <v>244</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="3:5" ht="15.75">
+    <row r="189" spans="3:5">
       <c r="C189" s="2" t="s">
         <v>245</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="3:5" ht="15.75">
+    <row r="190" spans="3:5">
       <c r="C190" s="2" t="s">
         <v>247</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="3:5" ht="15.75">
+    <row r="191" spans="3:5">
       <c r="C191" s="2" t="s">
         <v>248</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="3:5" ht="15.75">
+    <row r="192" spans="3:5">
       <c r="C192" s="2" t="s">
         <v>250</v>
       </c>
@@ -3946,7 +3952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="3:5" ht="15.75">
+    <row r="193" spans="3:5">
       <c r="C193" s="2" t="s">
         <v>251</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="3:5" ht="15.75">
+    <row r="194" spans="3:5">
       <c r="C194" s="2" t="s">
         <v>252</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="3:5" ht="15.75">
+    <row r="195" spans="3:5">
       <c r="C195" s="2" t="s">
         <v>253</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="3:5" ht="15.75">
+    <row r="196" spans="3:5">
       <c r="C196" s="2" t="s">
         <v>255</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="3:5" ht="15.75">
+    <row r="197" spans="3:5">
       <c r="C197" s="2" t="s">
         <v>256</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="3:5" ht="15.75">
+    <row r="198" spans="3:5">
       <c r="C198" s="2" t="s">
         <v>257</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="3:5" ht="15.75">
+    <row r="199" spans="3:5">
       <c r="C199" s="2" t="s">
         <v>259</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="3:5" ht="15.75">
+    <row r="200" spans="3:5">
       <c r="C200" s="2" t="s">
         <v>260</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="3:5" ht="15.75">
+    <row r="201" spans="3:5">
       <c r="C201" s="2" t="s">
         <v>261</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="3:5" ht="15.75">
+    <row r="202" spans="3:5">
       <c r="C202" s="2" t="s">
         <v>262</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="3:5" ht="15.75">
+    <row r="203" spans="3:5">
       <c r="C203" s="2" t="s">
         <v>264</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="3:5" ht="15.75">
+    <row r="204" spans="3:5">
       <c r="C204" s="2" t="s">
         <v>265</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="3:5" ht="15.75">
+    <row r="205" spans="3:5">
       <c r="C205" s="2" t="s">
         <v>266</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="3:5" ht="15.75">
+    <row r="206" spans="3:5">
       <c r="C206" s="2" t="s">
         <v>268</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="3:5" ht="15.75">
+    <row r="207" spans="3:5">
       <c r="C207" s="2" t="s">
         <v>269</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="3:5" ht="15.75">
+    <row r="208" spans="3:5">
       <c r="C208" s="2" t="s">
         <v>271</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="3:5" ht="15.75">
+    <row r="209" spans="3:5">
       <c r="C209" s="2" t="s">
         <v>273</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="3:5" ht="15.75">
+    <row r="210" spans="3:5">
       <c r="C210" s="2" t="s">
         <v>275</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="3:5" ht="15.75">
+    <row r="211" spans="3:5">
       <c r="C211" s="2" t="s">
         <v>276</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="3:5" ht="15.75">
+    <row r="212" spans="3:5">
       <c r="C212" s="2" t="s">
         <v>277</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="3:5" ht="15.75">
+    <row r="213" spans="3:5">
       <c r="C213" s="2" t="s">
         <v>278</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="3:5" ht="15.75">
+    <row r="215" spans="3:5">
       <c r="C215" s="3" t="s">
         <v>281</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="3:5" ht="15.75">
+    <row r="216" spans="3:5">
       <c r="C216" s="3" t="s">
         <v>283</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="3:5" ht="15.75">
+    <row r="217" spans="3:5">
       <c r="C217" s="3" t="s">
         <v>285</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="3:5" ht="16.5">
+    <row r="218" spans="3:5">
       <c r="D218" s="1" t="s">
         <v>150</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="3:5" ht="16.5">
+    <row r="221" spans="3:5">
       <c r="D221" s="1" t="s">
         <v>290</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="3:5" ht="16.5">
+    <row r="222" spans="3:5">
       <c r="D222" s="1" t="s">
         <v>291</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="3:5" ht="16.5">
+    <row r="223" spans="3:5">
       <c r="D223" s="1" t="s">
         <v>292</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="3:5" ht="16.5">
+    <row r="224" spans="3:5">
       <c r="D224" s="1" t="s">
         <v>293</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="3:5" ht="16.5">
+    <row r="225" spans="3:5">
       <c r="D225" s="1" t="s">
         <v>294</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="3:5" ht="16.5">
+    <row r="226" spans="3:5">
       <c r="D226" s="1" t="s">
         <v>284</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="3:5" ht="15.75">
+    <row r="227" spans="3:5">
       <c r="C227" s="10" t="s">
         <v>295</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="3:5" ht="15.75">
+    <row r="228" spans="3:5">
       <c r="C228" s="2" t="s">
         <v>297</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="3:5" ht="15.75">
+    <row r="229" spans="3:5">
       <c r="C229" s="2" t="s">
         <v>299</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="3:5" ht="15.75">
+    <row r="230" spans="3:5">
       <c r="C230" s="2" t="s">
         <v>301</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="3:5" ht="15.75">
+    <row r="231" spans="3:5">
       <c r="C231" s="2" t="s">
         <v>303</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="3:5" ht="15.75">
+    <row r="232" spans="3:5">
       <c r="C232" s="2" t="s">
         <v>305</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="3:5" ht="15.75">
+    <row r="233" spans="3:5">
       <c r="C233" s="2" t="s">
         <v>307</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="3:5" ht="15.75">
+    <row r="234" spans="3:5">
       <c r="C234" s="2" t="s">
         <v>309</v>
       </c>
@@ -4387,7 +4393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="3:5" ht="15.75">
+    <row r="235" spans="3:5">
       <c r="C235" s="2" t="s">
         <v>311</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="3:5" ht="15.75">
+    <row r="236" spans="3:5">
       <c r="C236" s="2" t="s">
         <v>313</v>
       </c>
@@ -4409,7 +4415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="3:5" ht="15.75">
+    <row r="237" spans="3:5">
       <c r="C237" s="2" t="s">
         <v>315</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="3:5" ht="15.75">
+    <row r="238" spans="3:5">
       <c r="C238" s="2" t="s">
         <v>317</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="3:5" ht="15.75">
+    <row r="239" spans="3:5">
       <c r="C239" s="2" t="s">
         <v>319</v>
       </c>
@@ -4442,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="3:5" ht="15.75">
+    <row r="240" spans="3:5">
       <c r="C240" s="2" t="s">
         <v>321</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="3:5" ht="15.75">
+    <row r="241" spans="3:5">
       <c r="C241" s="2" t="s">
         <v>323</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="3:5" ht="15.75">
+    <row r="242" spans="3:5">
       <c r="C242" s="2" t="s">
         <v>325</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="3:5" ht="15.75">
+    <row r="243" spans="3:5">
       <c r="C243" s="3" t="s">
         <v>327</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="3:5" ht="15.75">
+    <row r="244" spans="3:5">
       <c r="C244" s="3" t="s">
         <v>328</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="3:5" ht="15.75">
+    <row r="246" spans="3:5">
       <c r="C246" s="3" t="s">
         <v>331</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="3:5" ht="15.75">
+    <row r="247" spans="3:5">
       <c r="C247" s="3" t="s">
         <v>332</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="3:5" ht="15.75">
+    <row r="248" spans="3:5">
       <c r="C248" s="3" t="s">
         <v>334</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="3:5" ht="15.75">
+    <row r="249" spans="3:5" ht="30">
       <c r="C249" s="3" t="s">
         <v>336</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="3:5" ht="16.5">
+    <row r="251" spans="3:5">
       <c r="D251" s="1" t="s">
         <v>306</v>
       </c>
@@ -4571,7 +4577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="3:5" ht="16.5">
+    <row r="252" spans="3:5">
       <c r="D252" s="1" t="s">
         <v>339</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="3:5" ht="16.5">
+    <row r="253" spans="3:5">
       <c r="D253" s="1" t="s">
         <v>340</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="3:5" ht="16.5">
+    <row r="254" spans="3:5">
       <c r="D254" s="1" t="s">
         <v>341</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="3:5" ht="16.5">
+    <row r="255" spans="3:5">
       <c r="D255" s="1" t="s">
         <v>342</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="3:5" ht="16.5">
+    <row r="256" spans="3:5">
       <c r="D256" s="1" t="s">
         <v>343</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="4:5" ht="16.5">
+    <row r="257" spans="4:5">
       <c r="D257" s="1" t="s">
         <v>339</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="4:5" ht="16.5">
+    <row r="258" spans="4:5">
       <c r="D258" s="1" t="s">
         <v>344</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="4:5" ht="16.5">
+    <row r="259" spans="4:5">
       <c r="D259" s="1" t="s">
         <v>345</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="4:5" ht="16.5">
+    <row r="260" spans="4:5">
       <c r="D260" s="1" t="s">
         <v>346</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="4:5" ht="16.5">
+    <row r="261" spans="4:5">
       <c r="D261" s="1" t="s">
         <v>347</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="4:5" ht="16.5">
+    <row r="262" spans="4:5">
       <c r="D262" s="1" t="s">
         <v>53</v>
       </c>
@@ -4659,7 +4665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="4:5" ht="16.5">
+    <row r="263" spans="4:5">
       <c r="D263" s="1" t="s">
         <v>348</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="4:5" ht="16.5">
+    <row r="264" spans="4:5">
       <c r="D264" s="1" t="s">
         <v>349</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="4:5" ht="16.5">
+    <row r="265" spans="4:5">
       <c r="D265" s="1" t="s">
         <v>350</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="4:5" ht="16.5">
+    <row r="266" spans="4:5">
       <c r="D266" s="1" t="s">
         <v>351</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="4:5" ht="16.5">
+    <row r="267" spans="4:5">
       <c r="D267" s="1" t="s">
         <v>352</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="4:5" ht="16.5">
+    <row r="268" spans="4:5">
       <c r="D268" s="1" t="s">
         <v>353</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="4:5" ht="16.5">
+    <row r="269" spans="4:5">
       <c r="D269" s="1" t="s">
         <v>354</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="4:5" ht="16.5">
+    <row r="270" spans="4:5">
       <c r="D270" s="1" t="s">
         <v>355</v>
       </c>
@@ -4723,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="4:5" ht="16.5">
+    <row r="271" spans="4:5">
       <c r="D271" s="1" t="s">
         <v>356</v>
       </c>
@@ -4731,7 +4737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="4:5" ht="16.5">
+    <row r="272" spans="4:5">
       <c r="D272" s="1" t="s">
         <v>318</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="4:5" ht="16.5">
+    <row r="273" spans="4:5">
       <c r="D273" s="1" t="s">
         <v>320</v>
       </c>
@@ -4747,7 +4753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="4:5" ht="16.5">
+    <row r="274" spans="4:5">
       <c r="D274" s="1" t="s">
         <v>322</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="4:5" ht="16.5">
+    <row r="275" spans="4:5">
       <c r="D275" s="1" t="s">
         <v>310</v>
       </c>
@@ -5070,7 +5076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="3:5" ht="15.75">
+    <row r="311" spans="3:5">
       <c r="C311" s="2" t="s">
         <v>379</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="3:5" ht="15.75">
+    <row r="312" spans="3:5">
       <c r="C312" s="2" t="s">
         <v>381</v>
       </c>
@@ -5092,7 +5098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="3:5" ht="15.75">
+    <row r="313" spans="3:5">
       <c r="C313" s="2" t="s">
         <v>382</v>
       </c>
@@ -5103,7 +5109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="3:5" ht="16.5">
+    <row r="314" spans="3:5">
       <c r="D314" s="1" t="s">
         <v>384</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="3:5" ht="15.75">
+    <row r="315" spans="3:5">
       <c r="C315" s="2" t="s">
         <v>385</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="3:5" ht="15.75">
+    <row r="316" spans="3:5">
       <c r="C316" s="2" t="s">
         <v>386</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="3:5" ht="15.75">
+    <row r="317" spans="3:5">
       <c r="C317" s="2" t="s">
         <v>388</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="3:5" ht="16.5">
+    <row r="318" spans="3:5">
       <c r="D318" s="1" t="s">
         <v>389</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="3:5" ht="16.5">
+    <row r="319" spans="3:5">
       <c r="D319" s="1" t="s">
         <v>254</v>
       </c>
@@ -5160,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="3:5" ht="15.75">
+    <row r="320" spans="3:5">
       <c r="C320" s="3" t="s">
         <v>390</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="3:5" ht="15.75">
+    <row r="322" spans="3:5">
       <c r="C322" s="3" t="s">
         <v>392</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="3:5" ht="15.75">
+    <row r="323" spans="3:5">
       <c r="C323" s="3" t="s">
         <v>393</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="3:5" ht="16.5">
+    <row r="327" spans="3:5">
       <c r="D327" s="1" t="s">
         <v>399</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="3:5" ht="16.5">
+    <row r="328" spans="3:5">
       <c r="D328" s="1" t="s">
         <v>400</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="3:5" ht="16.5">
+    <row r="329" spans="3:5">
       <c r="D329" s="1" t="s">
         <v>401</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="3:5" ht="16.5">
+    <row r="330" spans="3:5">
       <c r="D330" s="1" t="s">
         <v>402</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="3:5" ht="16.5">
+    <row r="331" spans="3:5">
       <c r="D331" s="1" t="s">
         <v>403</v>
       </c>
@@ -5277,7 +5283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="3:5" ht="16.5">
+    <row r="332" spans="3:5">
       <c r="D332" s="1" t="s">
         <v>383</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="3:5" ht="16.5">
+    <row r="333" spans="3:5">
       <c r="D333" s="1" t="s">
         <v>118</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="3:5" ht="16.5">
+    <row r="334" spans="3:5">
       <c r="D334" s="1" t="s">
         <v>380</v>
       </c>
@@ -5301,7 +5307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="3:5" ht="16.5">
+    <row r="335" spans="3:5">
       <c r="D335" s="1" t="s">
         <v>67</v>
       </c>
@@ -5309,7 +5315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="3:5" ht="16.5">
+    <row r="336" spans="3:5">
       <c r="D336" s="1" t="s">
         <v>383</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="4:5" ht="16.5">
+    <row r="337" spans="4:5">
       <c r="D337" s="1" t="s">
         <v>384</v>
       </c>
@@ -5767,6 +5773,9 @@
       </c>
     </row>
     <row r="389" spans="3:5" ht="15" customHeight="1">
+      <c r="C389" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="D389" s="1" t="s">
         <v>450</v>
       </c>
